--- a/CNFL.xlsx
+++ b/CNFL.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="5895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="5895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estado de Situacion" sheetId="1" r:id="rId1"/>
     <sheet name="Estado de Resultados" sheetId="2" r:id="rId2"/>
+    <sheet name="Razones" sheetId="3" r:id="rId3"/>
+    <sheet name="Flujos Efectivo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>Compania Nacional de Fuerza y Luz S.A</t>
   </si>
@@ -283,15 +285,79 @@
   </si>
   <si>
     <t>Dif. (%) Vertical</t>
+  </si>
+  <si>
+    <t>Razon Circulante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razon Rapida </t>
+  </si>
+  <si>
+    <t>Rotacion de Inventarios</t>
+  </si>
+  <si>
+    <t>Periodo Medio Inventario</t>
+  </si>
+  <si>
+    <t>Periodo Medio de Pago</t>
+  </si>
+  <si>
+    <t>Periodo Medio de Cobro</t>
+  </si>
+  <si>
+    <t>Rotacion de Activos Fijos</t>
+  </si>
+  <si>
+    <t>Rotacion de Activos Totales</t>
+  </si>
+  <si>
+    <t>Razon de Deuda</t>
+  </si>
+  <si>
+    <t>Razones para el  2015</t>
+  </si>
+  <si>
+    <t>Razon Capacidad de pago de  Intereses</t>
+  </si>
+  <si>
+    <t>Margen de Utilidad Bruta</t>
+  </si>
+  <si>
+    <t>Margen de Utilidad Neta</t>
+  </si>
+  <si>
+    <t>Rendimiento Sobre Activos</t>
+  </si>
+  <si>
+    <t>Rendimiento Sobre el Capital</t>
+  </si>
+  <si>
+    <t>Capital de Trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origen </t>
+  </si>
+  <si>
+    <t>Aplicacion</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Lp</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$₡-140A]* #,##0.00_);_([$₡-140A]* \(#,##0.00\);_([$₡-140A]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -334,11 +400,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,19 +418,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -677,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,37 +769,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -768,11 +844,11 @@
         <v>-9.805713273925749E-3</v>
       </c>
       <c r="E7" s="8">
-        <f>(B7/$B$21)*100</f>
+        <f t="shared" ref="E7:E12" si="0">(B7/$B$21)*100</f>
         <v>90.831653885711731</v>
       </c>
       <c r="F7" s="8">
-        <f>(C7/$C$21)*100</f>
+        <f t="shared" ref="F7:F12" si="1">(C7/$C$21)*100</f>
         <v>91.25206846537661</v>
       </c>
       <c r="G7" s="11">
@@ -791,19 +867,19 @@
         <v>6521350</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" ref="D8:D47" si="0">(B8-C8)/C8</f>
+        <f t="shared" ref="D8:D47" si="2">(B8-C8)/C8</f>
         <v>-0.23032792289939966</v>
       </c>
       <c r="E8" s="8">
-        <f>(B8/$B$21)*100</f>
+        <f t="shared" si="0"/>
         <v>0.78193405633754531</v>
       </c>
       <c r="F8" s="8">
-        <f>(C8/$C$21)*100</f>
+        <f t="shared" si="1"/>
         <v>1.0106256336227235</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" ref="G8:G45" si="1">E8-F8</f>
+        <f t="shared" ref="G8:G45" si="3">E8-F8</f>
         <v>-0.22869157728517819</v>
       </c>
     </row>
@@ -818,19 +894,19 @@
         <v>262554</v>
       </c>
       <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <f>(B9/$B$21)*100</f>
         <v>4.0902092587722448E-2</v>
       </c>
       <c r="F9" s="8">
-        <f>(C9/$C$21)*100</f>
+        <f t="shared" si="1"/>
         <v>4.0688477479383957E-2</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1361510833849129E-4</v>
       </c>
     </row>
@@ -845,19 +921,19 @@
         <v>635348</v>
       </c>
       <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.2895358134439709E-2</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>-3.2895358134439709E-2</v>
-      </c>
-      <c r="E10" s="8">
-        <f>(B10/$B$21)*100</f>
         <v>9.572205712478532E-2</v>
       </c>
       <c r="F10" s="8">
-        <f>(C10/$C$21)*100</f>
+        <f t="shared" si="1"/>
         <v>9.8461051020253487E-2</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.738993895468167E-3</v>
       </c>
     </row>
@@ -872,19 +948,19 @@
         <v>8661323</v>
       </c>
       <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.14580878694859897</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>-0.14580878694859897</v>
-      </c>
-      <c r="E11" s="8">
-        <f>(B11/$B$21)*100</f>
         <v>1.1525671109768394</v>
       </c>
       <c r="F11" s="8">
-        <f>(C11/$C$21)*100</f>
+        <f t="shared" si="1"/>
         <v>1.3422611951338401</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.18969408415700073</v>
       </c>
     </row>
@@ -901,19 +977,19 @@
         <v>604910560</v>
       </c>
       <c r="D12" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.4150429114677714E-2</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>-1.4150429114677714E-2</v>
-      </c>
-      <c r="E12" s="10">
-        <f>(B12/$B$21)*100</f>
         <v>92.902779202738614</v>
       </c>
       <c r="F12" s="10">
-        <f>(C12/$C$21)*100</f>
+        <f t="shared" si="1"/>
         <v>93.744104822632806</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.8413256198941923</v>
       </c>
     </row>
@@ -924,7 +1000,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1014,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -953,19 +1029,19 @@
         <v>8076040</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.35260300840510944</v>
       </c>
       <c r="E15" s="8">
-        <f>(B15/$B$21)*100</f>
+        <f t="shared" ref="E15:E21" si="4">(B15/$B$21)*100</f>
         <v>1.7017497625261151</v>
       </c>
       <c r="F15" s="8">
-        <f>(C15/$C$21)*100</f>
+        <f t="shared" ref="F15:F21" si="5">(C15/$C$21)*100</f>
         <v>1.2515588094738759</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45019095305223922</v>
       </c>
     </row>
@@ -980,19 +1056,19 @@
         <v>339436</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3826465077363628E-2</v>
       </c>
       <c r="E16" s="8">
-        <f>(B16/$B$21)*100</f>
+        <f t="shared" si="4"/>
         <v>5.6254281159377362E-2</v>
       </c>
       <c r="F16" s="8">
-        <f>(C16/$C$21)*100</f>
+        <f t="shared" si="5"/>
         <v>5.2603022775094543E-2</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6512583842828183E-3</v>
       </c>
     </row>
@@ -1007,19 +1083,19 @@
         <v>26144890</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1249506117639049E-2</v>
       </c>
       <c r="E17" s="8">
-        <f>(B17/$B$21)*100</f>
+        <f t="shared" si="4"/>
         <v>4.1595425072419747</v>
       </c>
       <c r="F17" s="8">
-        <f>(C17/$C$21)*100</f>
+        <f t="shared" si="5"/>
         <v>4.0517218094790817</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10782069776289305</v>
       </c>
     </row>
@@ -1034,19 +1110,19 @@
         <v>4418283</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.43627581121444686</v>
       </c>
       <c r="E18" s="8">
-        <f>(B18/$B$21)*100</f>
+        <f t="shared" si="4"/>
         <v>0.98859467003331902</v>
       </c>
       <c r="F18" s="8">
-        <f>(C18/$C$21)*100</f>
+        <f t="shared" si="5"/>
         <v>0.68470946297921553</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30388520705410349</v>
       </c>
     </row>
@@ -1061,19 +1137,19 @@
         <v>1389298</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.11713973531956427</v>
       </c>
       <c r="E19" s="8">
-        <f>(B19/$B$21)*100</f>
+        <f t="shared" si="4"/>
         <v>0.1910795763005953</v>
       </c>
       <c r="F19" s="8">
-        <f>(C19/$C$21)*100</f>
+        <f t="shared" si="5"/>
         <v>0.21530207265992202</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.4222496359326717E-2</v>
       </c>
     </row>
@@ -1090,19 +1166,19 @@
         <v>40367947</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12856029066823735</v>
       </c>
       <c r="E20" s="10">
-        <f>(B20/$B$21)*100</f>
+        <f t="shared" si="4"/>
         <v>7.0972207972613814</v>
       </c>
       <c r="F20" s="10">
-        <f>(C20/$C$21)*100</f>
+        <f t="shared" si="5"/>
         <v>6.2558951773671891</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.8413256198941923</v>
       </c>
     </row>
@@ -1119,15 +1195,15 @@
         <v>645278507</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.2225960781923271E-3</v>
       </c>
       <c r="E21" s="10">
-        <f>(B21/$B$21)*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F21" s="10">
-        <f>(C21/$C$21)*100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G21" s="11"/>
@@ -1165,19 +1241,19 @@
         <v>63317730</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>(B24/$B$47)*100</f>
+        <f t="shared" ref="E24:E30" si="6">(B24/$B$47)*100</f>
         <v>9.8639809521257025</v>
       </c>
       <c r="F24" s="8">
-        <f>(C24/$C$47)*100</f>
+        <f t="shared" ref="F24:F30" si="7">(C24/$C$47)*100</f>
         <v>9.8124653638897659</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1515588235936605E-2</v>
       </c>
     </row>
@@ -1192,19 +1268,19 @@
         <v>2644710</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f>(B25/$B$47)*100</f>
+        <f t="shared" si="6"/>
         <v>0.4120073329207532</v>
       </c>
       <c r="F25" s="8">
-        <f>(C25/$C$47)*100</f>
+        <f t="shared" si="7"/>
         <v>0.40985558503965486</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1517478810983426E-3</v>
       </c>
     </row>
@@ -1219,19 +1295,19 @@
         <v>71527</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>(B26/$B$47)*100</f>
+        <f t="shared" si="6"/>
         <v>1.1142865759127736E-2</v>
       </c>
       <c r="F26" s="8">
-        <f>(C26/$C$47)*100</f>
+        <f t="shared" si="7"/>
         <v>1.1084671072114293E-2</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8194687013443658E-5</v>
       </c>
     </row>
@@ -1246,19 +1322,19 @@
         <v>115412781</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.17329256627132136</v>
       </c>
       <c r="E27" s="8">
-        <f>(B27/$B$47)*100</f>
+        <f t="shared" si="6"/>
         <v>14.863895285707693</v>
       </c>
       <c r="F27" s="8">
-        <f>(C27/$C$47)*100</f>
+        <f t="shared" si="7"/>
         <v>17.88573147067488</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.0218361849671869</v>
       </c>
     </row>
@@ -1273,19 +1349,19 @@
         <v>180325816</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.372239103024494E-2</v>
       </c>
       <c r="E28" s="8">
-        <f>(B28/$B$47)*100</f>
+        <f t="shared" si="6"/>
         <v>26.582961255109016</v>
       </c>
       <c r="F28" s="8">
-        <f>(C28/$C$47)*100</f>
+        <f t="shared" si="7"/>
         <v>27.945424191852091</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.3624629367430749</v>
       </c>
     </row>
@@ -1300,19 +1376,19 @@
         <v>-200171</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-11.018988764606261</v>
       </c>
       <c r="E29" s="8">
-        <f>(B29/$B$47)*100</f>
+        <f t="shared" si="6"/>
         <v>0.31242943016558816</v>
       </c>
       <c r="F29" s="8">
-        <f>(C29/$C$47)*100</f>
+        <f t="shared" si="7"/>
         <v>-3.1020868947057613E-2</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3434502991126458</v>
       </c>
     </row>
@@ -1329,19 +1405,19 @@
         <v>361572393</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.6006989283609383E-2</v>
       </c>
       <c r="E30" s="10">
-        <f>(B30/$B$47)*100</f>
+        <f t="shared" si="6"/>
         <v>52.046417121787883</v>
       </c>
       <c r="F30" s="10">
-        <f>(C30/$C$47)*100</f>
+        <f t="shared" si="7"/>
         <v>56.033540413581449</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.9871232917935657</v>
       </c>
     </row>
@@ -1374,19 +1450,19 @@
         <v>173456969</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16973273642294534</v>
       </c>
       <c r="E33" s="8">
-        <f>(B33/$B$47)*100</f>
+        <f t="shared" ref="E33:E38" si="8">(B33/$B$47)*100</f>
         <v>31.608601841834531</v>
       </c>
       <c r="F33" s="8">
-        <f>(C33/$C$47)*100</f>
+        <f t="shared" ref="F33:F38" si="9">(C33/$C$47)*100</f>
         <v>26.880946307421333</v>
       </c>
       <c r="G33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7276555344131985</v>
       </c>
     </row>
@@ -1401,19 +1477,19 @@
         <v>11609257</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3421666864640869E-2</v>
       </c>
       <c r="E34" s="8">
-        <f>(B34/$B$47)*100</f>
+        <f t="shared" si="8"/>
         <v>1.9413403042793276</v>
       </c>
       <c r="F34" s="8">
-        <f>(C34/$C$47)*100</f>
+        <f t="shared" si="9"/>
         <v>1.7991079625405841</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14223234173874344</v>
       </c>
     </row>
@@ -1428,19 +1504,19 @@
         <v>6926725</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.5613247241661824</v>
       </c>
       <c r="E35" s="8">
-        <f>(B35/$B$47)*100</f>
+        <f t="shared" si="8"/>
         <v>0.47336701479116472</v>
       </c>
       <c r="F35" s="8">
-        <f>(C35/$C$47)*100</f>
+        <f t="shared" si="9"/>
         <v>1.0734473448067285</v>
       </c>
       <c r="G35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.60008033001556382</v>
       </c>
     </row>
@@ -1455,19 +1531,19 @@
         <v>97986</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.73329863449880595</v>
       </c>
       <c r="E36" s="8">
-        <f>(B36/$B$47)*100</f>
+        <f t="shared" si="8"/>
         <v>4.071141119902766E-3</v>
       </c>
       <c r="F36" s="8">
-        <f>(C36/$C$47)*100</f>
+        <f t="shared" si="9"/>
         <v>1.5185071087452167E-2</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.11139299675494E-2</v>
       </c>
     </row>
@@ -1482,19 +1558,19 @@
         <v>1660450</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.0056611159625402E-2</v>
       </c>
       <c r="E37" s="8">
-        <f>(B37/$B$47)*100</f>
+        <f t="shared" si="8"/>
         <v>0.25348582481255216</v>
       </c>
       <c r="F37" s="8">
-        <f>(C37/$C$47)*100</f>
+        <f t="shared" si="9"/>
         <v>0.2573229980523743</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.8371732398221337E-3</v>
       </c>
     </row>
@@ -1511,19 +1587,19 @@
         <v>193751387</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13574302309381661</v>
       </c>
       <c r="E38" s="10">
-        <f>(B38/$B$47)*100</f>
+        <f t="shared" si="8"/>
         <v>34.280866126837481</v>
       </c>
       <c r="F38" s="10">
-        <f>(C38/$C$47)*100</f>
+        <f t="shared" si="9"/>
         <v>30.026009683908473</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2548564429290074</v>
       </c>
     </row>
@@ -1555,7 +1631,7 @@
         <v>33278052</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.24782237854547495</v>
       </c>
       <c r="E41" s="8">
@@ -1567,7 +1643,7 @@
         <v>5.1571610768061733</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.2576945861953419</v>
       </c>
     </row>
@@ -1582,7 +1658,7 @@
         <v>40869609</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.27004946389381901</v>
       </c>
       <c r="E42" s="8">
@@ -1594,7 +1670,7 @@
         <v>6.3336386624760159</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7526270247642142</v>
       </c>
     </row>
@@ -1609,7 +1685,7 @@
         <v>15807066</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.31493314445577691</v>
       </c>
       <c r="E43" s="8">
@@ -1621,7 +1697,7 @@
         <v>2.4496501632278913</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.76266558970431197</v>
       </c>
     </row>
@@ -1638,7 +1714,7 @@
         <v>89954727</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.4327782129781796E-2</v>
       </c>
       <c r="E44" s="10">
@@ -1650,7 +1726,7 @@
         <v>13.94044990251008</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.26773315113543816</v>
       </c>
     </row>
@@ -1667,7 +1743,7 @@
         <v>283706114</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4989356274500313E-2</v>
       </c>
       <c r="E45" s="10">
@@ -1679,7 +1755,7 @@
         <v>43.966459586418551</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9871232917935657</v>
       </c>
     </row>
@@ -1707,7 +1783,7 @@
         <v>645278507</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.2225960781923271E-3</v>
       </c>
       <c r="E47" s="10">
@@ -1719,6 +1795,12 @@
         <v>100</v>
       </c>
       <c r="G47" s="11"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1735,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,37 +1831,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -1857,7 +1939,7 @@
         <v>-0.35115689741752837</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" ref="E8:E42" si="1">(B8/$B$9)*100</f>
+        <f t="shared" ref="E8:E33" si="1">(B8/$B$9)*100</f>
         <v>2.5406573320602299</v>
       </c>
       <c r="F8" s="11">
@@ -2562,10 +2644,7 @@
       <c r="C37" s="1">
         <v>22664605</v>
       </c>
-      <c r="D37" s="7">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2587,10 +2666,7 @@
       <c r="C39" s="1">
         <v>-200171</v>
       </c>
-      <c r="D39" s="7">
-        <f t="shared" si="0"/>
-        <v>-12.018988764606261</v>
-      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2605,10 +2681,7 @@
         <f>SUM(C37:C39)</f>
         <v>22464434</v>
       </c>
-      <c r="D40" s="9">
-        <f t="shared" si="0"/>
-        <v>-0.9018144859558892</v>
-      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2623,10 +2696,7 @@
         <f>SUM(C33,C40)</f>
         <v>13617174</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.0182545218266288</v>
-      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2639,10 +2709,7 @@
       <c r="C42" s="3">
         <v>-139.72999999999999</v>
       </c>
-      <c r="D42" s="9">
-        <f t="shared" si="0"/>
-        <v>2.3556143991984544</v>
-      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="12"/>
     </row>
   </sheetData>
@@ -2653,4 +2720,856 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="16">
+        <f>('Estado de Situacion'!B20/'Estado de Situacion'!B44)</f>
+        <v>0.519079048174375</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="16">
+        <f>('Estado de Situacion'!B20-'Estado de Situacion'!B18)/'Estado de Situacion'!B44</f>
+        <v>0.44677486108339864</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="16">
+        <f>'Estado de Resultados'!B17/'Estado de Situacion'!B18</f>
+        <v>39.140001541159116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="16">
+        <f>360/C5</f>
+        <v>9.1977512985386234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="16">
+        <f>'Estado de Situacion'!B17/('Estado de Resultados'!B9/360)</f>
+        <v>31.744351554538632</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="16">
+        <f>'Estado de Situacion'!B42/('Estado de Resultados'!B17/360)</f>
+        <v>75.233523889659907</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="16">
+        <f>'Estado de Resultados'!B9/'Estado de Situacion'!B12</f>
+        <v>0.50775347140633409</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="16">
+        <f>'Estado de Resultados'!B9/'Estado de Situacion'!B21</f>
+        <v>0.47171708643486709</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="16">
+        <f>'Estado de Situacion'!B45/'Estado de Situacion'!B21</f>
+        <v>0.4795358287821212</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="16">
+        <f>'Estado de Resultados'!B26/'Estado de Resultados'!B29</f>
+        <v>0.542010475919387</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="16">
+        <f>('Estado de Resultados'!B9-'Estado de Resultados'!B17)/'Estado de Resultados'!B9</f>
+        <v>0.17972873950521079</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="16">
+        <f>'Estado de Resultados'!B33/'Estado de Resultados'!B9</f>
+        <v>-9.8047172166047719E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="16">
+        <f>'Estado de Resultados'!B33/'Estado de Situacion'!B21</f>
+        <v>-4.6250526387345829E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="16">
+        <f>'Estado de Resultados'!B33/'Estado de Situacion'!B30</f>
+        <v>-8.8863996688033783E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="17">
+        <f>'Estado de Situacion'!B20-'Estado de Situacion'!B44</f>
+        <v>-42208666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="18"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>588829985</v>
+      </c>
+      <c r="C7" s="1">
+        <v>583056087</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7-C7</f>
+        <v>5773898</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6521350</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5019301</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8-C8</f>
+        <v>1502049</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>262554</v>
+      </c>
+      <c r="C9" s="1">
+        <v>262554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>635348</v>
+      </c>
+      <c r="C10" s="1">
+        <v>614448</v>
+      </c>
+      <c r="D10" s="1">
+        <f>B10-C10</f>
+        <v>20900</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8661323</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7398426</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11-C11</f>
+        <v>1262897</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B7:B11)</f>
+        <v>604910560</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SUM(C7:C11)</f>
+        <v>596350816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8076040</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10923676</v>
+      </c>
+      <c r="E15" s="1">
+        <f>C15-B15</f>
+        <v>2847636</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>339436</v>
+      </c>
+      <c r="C16" s="1">
+        <v>361101</v>
+      </c>
+      <c r="E16" s="1">
+        <f>C16-B16</f>
+        <v>21665</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>26144890</v>
+      </c>
+      <c r="C17" s="1">
+        <v>26700456</v>
+      </c>
+      <c r="E17" s="1">
+        <f>C17-B17</f>
+        <v>555566</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4418283</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6345873</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18-B18</f>
+        <v>1927590</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1389298</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1226556</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19-C19</f>
+        <v>162742</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(B15:B19)</f>
+        <v>40367947</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C15:C19)</f>
+        <v>45557662</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <f>SUM(B12,B20)</f>
+        <v>645278507</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(C12,C20)</f>
+        <v>641908478</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>63317730</v>
+      </c>
+      <c r="C24" s="1">
+        <v>63317730</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2644710</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2644710</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>71527</v>
+      </c>
+      <c r="C26" s="1">
+        <v>71527</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>115412781</v>
+      </c>
+      <c r="C27" s="1">
+        <v>95412604</v>
+      </c>
+      <c r="E27" s="1">
+        <f>B27-C27</f>
+        <v>20000177</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>180325816</v>
+      </c>
+      <c r="C28" s="1">
+        <v>170638282</v>
+      </c>
+      <c r="E28" s="1">
+        <f>B28-C28</f>
+        <v>9687534</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-200171</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2005511</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(C29,B29)</f>
+        <v>1805340</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="G29" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <f>SUM(B24:B29)</f>
+        <v>361572393</v>
+      </c>
+      <c r="C30" s="3">
+        <f>SUM(C24:C29)</f>
+        <v>334090364</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>173456969</v>
+      </c>
+      <c r="C33" s="1">
+        <v>202898295</v>
+      </c>
+      <c r="D33" s="1">
+        <f>C33-B33</f>
+        <v>29441326</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11609257</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12461628</v>
+      </c>
+      <c r="D34" s="1">
+        <f>C34-B34</f>
+        <v>852371</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6926725</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3038583</v>
+      </c>
+      <c r="E35" s="1">
+        <f>B35-C35</f>
+        <v>3888142</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>97986</v>
+      </c>
+      <c r="C36" s="1">
+        <v>26133</v>
+      </c>
+      <c r="E36" s="1">
+        <f>B36-C36</f>
+        <v>71853</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1660450</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1627147</v>
+      </c>
+      <c r="E37" s="1">
+        <f>B37-C37</f>
+        <v>33303</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <f>SUM(B33:B37)</f>
+        <v>193751387</v>
+      </c>
+      <c r="C38" s="3">
+        <f>SUM(C33:C37)</f>
+        <v>220051786</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>33278052</v>
+      </c>
+      <c r="C41" s="1">
+        <v>25031006</v>
+      </c>
+      <c r="E41" s="1">
+        <f>B41-C41</f>
+        <v>8247046</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40869609</v>
+      </c>
+      <c r="C42" s="1">
+        <v>51906425</v>
+      </c>
+      <c r="D42" s="1">
+        <f>C42-B42</f>
+        <v>11036816</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="G42" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15807066</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10828897</v>
+      </c>
+      <c r="E43" s="1">
+        <f>B43-C43</f>
+        <v>4978169</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <f>SUM(B41:B43)</f>
+        <v>89954727</v>
+      </c>
+      <c r="C44" s="3">
+        <f>SUM(C41:C43)</f>
+        <v>87766328</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <f>SUM(B38,B44)</f>
+        <v>283706114</v>
+      </c>
+      <c r="C45" s="3">
+        <f>SUM(C38,C44)</f>
+        <v>307818114</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <f>SUM(B30,B45)</f>
+        <v>645278507</v>
+      </c>
+      <c r="C47" s="3">
+        <f>SUM(C30,C45)</f>
+        <v>641908478</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <f>SUM(D7:D47)</f>
+        <v>51858339</v>
+      </c>
+      <c r="E49" s="1">
+        <f>SUM(E7:E47)</f>
+        <v>52258681</v>
+      </c>
+      <c r="I49" s="1">
+        <f>E49-D49</f>
+        <v>400342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CNFL.xlsx
+++ b/CNFL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estado de Situacion" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t xml:space="preserve">Compania Nacional de Fuerza y Luz S.A</t>
   </si>
@@ -283,30 +283,57 @@
     <t xml:space="preserve">Perdida por accion</t>
   </si>
   <si>
+    <t xml:space="preserve">PORTADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Razones para el  2015</t>
   </si>
   <si>
+    <t xml:space="preserve">REFERENTE INSTITUCIONAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Razon Circulante</t>
   </si>
   <si>
+    <t xml:space="preserve">CALCULOS H Y V de los dos </t>
+  </si>
+  <si>
     <t xml:space="preserve">Razon Rapida </t>
   </si>
   <si>
+    <t xml:space="preserve">ANÁLIS ER-H Y V</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotacion de Inventarios</t>
   </si>
   <si>
+    <t xml:space="preserve">ANALISIS BG H Y V</t>
+  </si>
+  <si>
     <t xml:space="preserve">Periodo Medio Inventario</t>
   </si>
   <si>
+    <t xml:space="preserve">ANALISIS RAZONES</t>
+  </si>
+  <si>
     <t xml:space="preserve">Periodo Medio de Cobro</t>
   </si>
   <si>
+    <t xml:space="preserve">ANALISIS APLICACIÓN Y ORIGEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Periodo Medio de Pago</t>
   </si>
   <si>
+    <t xml:space="preserve">ANALISIS GENERAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotacion de Activos Fijos</t>
   </si>
   <si>
+    <t xml:space="preserve">SI INVIERTE O NO EN LA EMPRESA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotacion de Activos Totales</t>
   </si>
   <si>
@@ -331,6 +358,105 @@
     <t xml:space="preserve">Capital de Trabajo</t>
   </si>
   <si>
+    <t xml:space="preserve">Se observa que por cada colon que la empresa posee puede cubrir 0.52 colones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de la deuda, por lo cual, quiere decir que la empresa tiene un problema de solvencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de un 0.48 colones para cubrir cada colon de deuda a corto plazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La razon rapida nos indica que la empresa tiene para responder ante la  deuda a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">corto plazo un 45% del total de la deuda de la empresa, esto sin contar los inventarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o sea, que la empresa tan solo tiene 0.45 colones para responder por cada colon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de deuda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa rota su inventario 39 veces en el periodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta razon nos mestra que el inventario tiene una duracion de 9 dias aproximadamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa dura aproximadamente 32 dias cobrando a sus clientes el servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrico brindado, lo que es un buen parámetro en función de que los créditos suelen ser en un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plazo de  30 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La compañia dura aproximadamente 75 pagando sus deudas a corto plazo, por </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo cual esta empresa posiblemente pueda estar pagando intereses por mora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se observa que la empresa ha generado un 1% mas de ventas en relacion al </t>
+  </si>
+  <si>
+    <t xml:space="preserve">año anterior, esto con sus activos fijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se puede apreciar que la empresa esta utilizando sus activos totales con una </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eficiencia de 47% de lo cual este porcentaje deberia a mi criterio ser superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a el 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se muestra que la empresa esta financiada en un 48% para mantener sus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">operaciones a corto plazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa por cada colon que debe pagar  tan solo genera un 0.54 colones de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilidad neta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La utilidad bruta de la empresa esta representada por un  18% que corresponden a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">las ventas luego de pagar el costo de entas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ulidad neta de la empresa representa un -10% de las ventas o sea no hay  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">margen de utilidad neta para el periodo. Los gastos del periódo son tan altos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que nos lleva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se observa que la empresa ha tenido un rendimiento de -5% sobre sus ativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa demuestra un perdida de 9% en su rendimiento dsobre el capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de sus socios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La empresa tiene aproximadamente -42.300.000 de colones en  su capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de trabjo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Origen </t>
   </si>
   <si>
@@ -350,19 +476,23 @@
   </si>
   <si>
     <t xml:space="preserve">Provision ara prestaciones legales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_([$₡-140A]* #,##0.00_);_([$₡-140A]* \(#,##0.00\);_([$₡-140A]* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -396,12 +526,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -432,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -442,7 +584,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,11 +613,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -499,6 +649,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,7 +661,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,17 +700,17 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -609,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
@@ -627,16 +793,16 @@
         <f aca="false">(B7/$B$21)*100</f>
         <v>90.8316538857117</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <f aca="false">(C7/$C$21)*100</f>
         <v>91.2520684653766</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="9" t="n">
         <f aca="false">E7-F7</f>
         <v>-0.420414579664879</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -646,19 +812,19 @@
       <c r="C8" s="5" t="n">
         <v>6521350</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="10" t="n">
         <f aca="false">(B8-C8)/C8</f>
         <v>-0.2303279228994</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <f aca="false">(B8/$B$21)*100</f>
         <v>0.781934056337545</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <f aca="false">(C8/$C$21)*100</f>
         <v>1.01062563362272</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="9" t="n">
         <f aca="false">E8-F8</f>
         <v>-0.228691577285178</v>
       </c>
@@ -677,15 +843,15 @@
         <f aca="false">(B9-C9)/C9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <f aca="false">(B9/$B$21)*100</f>
         <v>0.0409020925877224</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <f aca="false">(C9/$C$21)*100</f>
         <v>0.040688477479384</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="9" t="n">
         <f aca="false">E9-F9</f>
         <v>0.000213615108338491</v>
       </c>
@@ -704,20 +870,20 @@
         <f aca="false">(B10-C10)/C10</f>
         <v>-0.0328953581344397</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <f aca="false">(B10/$B$21)*100</f>
         <v>0.0957220571247853</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <f aca="false">(C10/$C$21)*100</f>
         <v>0.0984610510202535</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="9" t="n">
         <f aca="false">E10-F10</f>
         <v>-0.00273899389546817</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
@@ -727,19 +893,19 @@
       <c r="C11" s="5" t="n">
         <v>8661323</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="10" t="n">
         <f aca="false">(B11-C11)/C11</f>
         <v>-0.145808786948599</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <f aca="false">(B11/$B$21)*100</f>
         <v>1.15256711097684</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <f aca="false">(C11/$C$21)*100</f>
         <v>1.34226119513384</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="9" t="n">
         <f aca="false">E11-F11</f>
         <v>-0.189694084157001</v>
       </c>
@@ -748,27 +914,27 @@
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <f aca="false">SUM(B7:B11)</f>
         <v>596350816</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <f aca="false">SUM(C7:C11)</f>
         <v>604910560</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="12" t="n">
         <f aca="false">(B12-C12)/C12</f>
         <v>-0.0141504291146777</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="13" t="n">
         <f aca="false">(B12/$B$21)*100</f>
         <v>92.9027792027386</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="13" t="n">
         <f aca="false">(C12/$C$21)*100</f>
         <v>93.7441048226328</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="14" t="n">
         <f aca="false">E12-F12</f>
         <v>-0.841325619894192</v>
       </c>
@@ -777,9 +943,9 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="n">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="n">
         <f aca="false">E13-F13</f>
         <v>0</v>
       </c>
@@ -788,17 +954,17 @@
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8" t="n">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="n">
         <f aca="false">E14-F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>18</v>
       </c>
@@ -808,19 +974,19 @@
       <c r="C15" s="5" t="n">
         <v>8076040</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="10" t="n">
         <f aca="false">(B15-C15)/C15</f>
         <v>0.352603008405109</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <f aca="false">(B15/$B$21)*100</f>
         <v>1.70174976252612</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <f aca="false">(C15/$C$21)*100</f>
         <v>1.25155880947388</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="9" t="n">
         <f aca="false">E15-F15</f>
         <v>0.450190953052239</v>
       </c>
@@ -839,20 +1005,20 @@
         <f aca="false">(B16-C16)/C16</f>
         <v>0.0638264650773636</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <f aca="false">(B16/$B$21)*100</f>
         <v>0.0562542811593774</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="8" t="n">
         <f aca="false">(C16/$C$21)*100</f>
         <v>0.0526030227750945</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="9" t="n">
         <f aca="false">E16-F16</f>
         <v>0.00365125838428282</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>20</v>
       </c>
@@ -870,16 +1036,16 @@
         <f aca="false">(B17/$B$21)*100</f>
         <v>4.15954250724198</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="8" t="n">
         <f aca="false">(C17/$C$21)*100</f>
         <v>4.05172180947908</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="9" t="n">
         <f aca="false">E17-F17</f>
         <v>0.107820697762893</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>21</v>
       </c>
@@ -889,24 +1055,24 @@
       <c r="C18" s="5" t="n">
         <v>4418283</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="10" t="n">
         <f aca="false">(B18-C18)/C18</f>
         <v>0.436275811214447</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <f aca="false">(B18/$B$21)*100</f>
         <v>0.988594670033319</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <f aca="false">(C18/$C$21)*100</f>
         <v>0.684709462979215</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="9" t="n">
         <f aca="false">E18-F18</f>
         <v>0.303885207054103</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
@@ -916,19 +1082,19 @@
       <c r="C19" s="5" t="n">
         <v>1389298</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="10" t="n">
         <f aca="false">(B19-C19)/C19</f>
         <v>-0.117139735319564</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <f aca="false">(B19/$B$21)*100</f>
         <v>0.191079576300595</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <f aca="false">(C19/$C$21)*100</f>
         <v>0.215302072659922</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="9" t="n">
         <f aca="false">E19-F19</f>
         <v>-0.0242224963593267</v>
       </c>
@@ -937,27 +1103,27 @@
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <f aca="false">SUM(B15:B19)</f>
         <v>45557662</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <f aca="false">SUM(C15:C19)</f>
         <v>40367947</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="12" t="n">
         <f aca="false">(B20-C20)/C20</f>
         <v>0.128560290668237</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="13" t="n">
         <f aca="false">(B20/$B$21)*100</f>
         <v>7.09722079726138</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="13" t="n">
         <f aca="false">(C20/$C$21)*100</f>
         <v>6.25589517736719</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="14" t="n">
         <f aca="false">E20-F20</f>
         <v>0.841325619894192</v>
       </c>
@@ -966,27 +1132,27 @@
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <f aca="false">SUM(B12,B20)</f>
         <v>641908478</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <f aca="false">SUM(C12,C20)</f>
         <v>645278507</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="12" t="n">
         <f aca="false">(B21-C21)/C21</f>
         <v>-0.00522259607819233</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="13" t="n">
         <f aca="false">(B21/$B$21)*100</f>
         <v>100</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="13" t="n">
         <f aca="false">(C21/$C$21)*100</f>
         <v>100</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
@@ -995,22 +1161,22 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>27</v>
       </c>
@@ -1028,11 +1194,11 @@
         <f aca="false">(B24/$B$47)*100</f>
         <v>9.8639809521257</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="8" t="n">
         <f aca="false">(C24/$C$47)*100</f>
         <v>9.81246536388977</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="9" t="n">
         <f aca="false">E24-F24</f>
         <v>0.0515155882359366</v>
       </c>
@@ -1051,15 +1217,15 @@
         <f aca="false">(B25-C25)/C25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="8" t="n">
         <f aca="false">(B25/$B$47)*100</f>
         <v>0.412007332920753</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="8" t="n">
         <f aca="false">(C25/$C$47)*100</f>
         <v>0.409855585039655</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="9" t="n">
         <f aca="false">E25-F25</f>
         <v>0.00215174788109834</v>
       </c>
@@ -1078,20 +1244,20 @@
         <f aca="false">(B26-C26)/C26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="8" t="n">
         <f aca="false">(B26/$B$47)*100</f>
         <v>0.0111428657591277</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="8" t="n">
         <f aca="false">(C26/$C$47)*100</f>
         <v>0.0110846710721143</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="9" t="n">
         <f aca="false">E26-F26</f>
         <v>5.81946870134437E-005</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1267,7 @@
       <c r="C27" s="5" t="n">
         <v>115412781</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="10" t="n">
         <f aca="false">(B27-C27)/C27</f>
         <v>-0.173292566271321</v>
       </c>
@@ -1109,16 +1275,16 @@
         <f aca="false">(B27/$B$47)*100</f>
         <v>14.8638952857077</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="8" t="n">
         <f aca="false">(C27/$C$47)*100</f>
         <v>17.8857314706749</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="9" t="n">
         <f aca="false">E27-F27</f>
         <v>-3.02183618496719</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>31</v>
       </c>
@@ -1136,16 +1302,16 @@
         <f aca="false">(B28/$B$47)*100</f>
         <v>26.582961255109</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="8" t="n">
         <f aca="false">(C28/$C$47)*100</f>
         <v>27.9454241918521</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="9" t="n">
         <f aca="false">E28-F28</f>
         <v>-1.36246293674308</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>32</v>
       </c>
@@ -1155,19 +1321,19 @@
       <c r="C29" s="5" t="n">
         <v>-200171</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="10" t="n">
         <f aca="false">(B29-C29)/C29</f>
         <v>-11.0189887646063</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="8" t="n">
         <f aca="false">(B29/$B$47)*100</f>
         <v>0.312429430165588</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="8" t="n">
         <f aca="false">(C29/$C$47)*100</f>
         <v>-0.0310208689470576</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="9" t="n">
         <f aca="false">E29-F29</f>
         <v>0.343450299112646</v>
       </c>
@@ -1176,50 +1342,50 @@
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <f aca="false">SUM(B24:B29)</f>
         <v>334090364</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <f aca="false">SUM(C24:C29)</f>
         <v>361572393</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="12" t="n">
         <f aca="false">(B30-C30)/C30</f>
         <v>-0.0760069892836094</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="13" t="n">
         <f aca="false">(B30/$B$47)*100</f>
         <v>52.0464171217879</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="13" t="n">
         <f aca="false">(C30/$C$47)*100</f>
         <v>56.0335404135815</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="14" t="n">
         <f aca="false">E30-F30</f>
         <v>-3.98712329179357</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>35</v>
       </c>
@@ -1229,7 +1395,7 @@
       <c r="C33" s="5" t="n">
         <v>173456969</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="10" t="n">
         <f aca="false">(B33-C33)/C33</f>
         <v>0.169732736422945</v>
       </c>
@@ -1237,11 +1403,11 @@
         <f aca="false">(B33/$B$47)*100</f>
         <v>31.6086018418345</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="8" t="n">
         <f aca="false">(C33/$C$47)*100</f>
         <v>26.8809463074213</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="9" t="n">
         <f aca="false">E33-F33</f>
         <v>4.7276555344132</v>
       </c>
@@ -1260,20 +1426,20 @@
         <f aca="false">(B34-C34)/C34</f>
         <v>0.0734216668646409</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="8" t="n">
         <f aca="false">(B34/$B$47)*100</f>
         <v>1.94134030427933</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="8" t="n">
         <f aca="false">(C34/$C$47)*100</f>
         <v>1.79910796254058</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="9" t="n">
         <f aca="false">E34-F34</f>
         <v>0.142232341738743</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>37</v>
       </c>
@@ -1283,24 +1449,24 @@
       <c r="C35" s="5" t="n">
         <v>6926725</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="10" t="n">
         <f aca="false">(B35-C35)/C35</f>
         <v>-0.561324724166182</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="8" t="n">
         <f aca="false">(B35/$B$47)*100</f>
         <v>0.473367014791165</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="8" t="n">
         <f aca="false">(C35/$C$47)*100</f>
         <v>1.07344734480673</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="9" t="n">
         <f aca="false">E35-F35</f>
         <v>-0.600080330015564</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>38</v>
       </c>
@@ -1310,19 +1476,19 @@
       <c r="C36" s="5" t="n">
         <v>97986</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="10" t="n">
         <f aca="false">(B36-C36)/C36</f>
         <v>-0.733298634498806</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="8" t="n">
         <f aca="false">(B36/$B$47)*100</f>
         <v>0.00407114111990277</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="8" t="n">
         <f aca="false">(C36/$C$47)*100</f>
         <v>0.0151850710874522</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="9" t="n">
         <f aca="false">E36-F36</f>
         <v>-0.0111139299675494</v>
       </c>
@@ -1341,15 +1507,15 @@
         <f aca="false">(B37-C37)/C37</f>
         <v>-0.0200566111596254</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="8" t="n">
         <f aca="false">(B37/$B$47)*100</f>
         <v>0.253485824812552</v>
       </c>
-      <c r="F37" s="7" t="n">
+      <c r="F37" s="8" t="n">
         <f aca="false">(C37/$C$47)*100</f>
         <v>0.257322998052374</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="9" t="n">
         <f aca="false">E37-F37</f>
         <v>-0.00383717323982213</v>
       </c>
@@ -1358,27 +1524,27 @@
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="11" t="n">
         <f aca="false">SUM(B33:B37)</f>
         <v>220051786</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="11" t="n">
         <f aca="false">SUM(C33:C37)</f>
         <v>193751387</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="12" t="n">
         <f aca="false">(B38-C38)/C38</f>
         <v>0.135743023093817</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E38" s="13" t="n">
         <f aca="false">(B38/$B$47)*100</f>
         <v>34.2808661268375</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="13" t="n">
         <f aca="false">(C38/$C$47)*100</f>
         <v>30.0260096839085</v>
       </c>
-      <c r="G38" s="12" t="n">
+      <c r="G38" s="14" t="n">
         <f aca="false">E38-F38</f>
         <v>4.25485644292901</v>
       </c>
@@ -1386,21 +1552,21 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>42</v>
       </c>
@@ -1410,24 +1576,24 @@
       <c r="C41" s="5" t="n">
         <v>33278052</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="10" t="n">
         <f aca="false">(B41-C41)/C41</f>
         <v>-0.247822378545475</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="8" t="n">
         <f aca="false">(B41/$B$47)*100</f>
         <v>3.89946649061083</v>
       </c>
-      <c r="F41" s="7" t="n">
+      <c r="F41" s="8" t="n">
         <f aca="false">(C41/$C$47)*100</f>
         <v>5.15716107680617</v>
       </c>
-      <c r="G41" s="8" t="n">
+      <c r="G41" s="9" t="n">
         <f aca="false">E41-F41</f>
         <v>-1.25769458619534</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1603,7 @@
       <c r="C42" s="5" t="n">
         <v>40869609</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="10" t="n">
         <f aca="false">(B42-C42)/C42</f>
         <v>0.270049463893819</v>
       </c>
@@ -1445,16 +1611,16 @@
         <f aca="false">(B42/$B$47)*100</f>
         <v>8.08626568724023</v>
       </c>
-      <c r="F42" s="7" t="n">
+      <c r="F42" s="8" t="n">
         <f aca="false">(C42/$C$47)*100</f>
         <v>6.33363866247602</v>
       </c>
-      <c r="G42" s="8" t="n">
+      <c r="G42" s="9" t="n">
         <f aca="false">E42-F42</f>
         <v>1.75262702476421</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>44</v>
       </c>
@@ -1464,19 +1630,19 @@
       <c r="C43" s="5" t="n">
         <v>15807066</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="10" t="n">
         <f aca="false">(B43-C43)/C43</f>
         <v>-0.314933144455777</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="8" t="n">
         <f aca="false">(B43/$B$47)*100</f>
         <v>1.68698457352358</v>
       </c>
-      <c r="F43" s="7" t="n">
+      <c r="F43" s="8" t="n">
         <f aca="false">(C43/$C$47)*100</f>
         <v>2.44965016322789</v>
       </c>
-      <c r="G43" s="8" t="n">
+      <c r="G43" s="9" t="n">
         <f aca="false">E43-F43</f>
         <v>-0.762665589704312</v>
       </c>
@@ -1485,27 +1651,27 @@
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="11" t="n">
         <f aca="false">SUM(B41:B43)</f>
         <v>87766328</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="11" t="n">
         <f aca="false">SUM(C41:C43)</f>
         <v>89954727</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="12" t="n">
         <f aca="false">(B44-C44)/C44</f>
         <v>-0.0243277821297818</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E44" s="13" t="n">
         <f aca="false">(B44/$B$47)*100</f>
         <v>13.6727167513746</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="13" t="n">
         <f aca="false">(C44/$C$47)*100</f>
         <v>13.9404499025101</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="14" t="n">
         <f aca="false">E44-F44</f>
         <v>-0.267733151135438</v>
       </c>
@@ -1514,27 +1680,27 @@
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="11" t="n">
         <f aca="false">SUM(B38,B44)</f>
         <v>307818114</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="11" t="n">
         <f aca="false">SUM(C38,C44)</f>
         <v>283706114</v>
       </c>
-      <c r="D45" s="10" t="n">
+      <c r="D45" s="12" t="n">
         <f aca="false">(B45-C45)/C45</f>
         <v>0.0849893562745003</v>
       </c>
-      <c r="E45" s="11" t="n">
+      <c r="E45" s="13" t="n">
         <f aca="false">(B45/$B$47)*100</f>
         <v>47.9535828782121</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="13" t="n">
         <f aca="false">(C45/$C$47)*100</f>
         <v>43.9664595864186</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="14" t="n">
         <f aca="false">E45-F45</f>
         <v>3.98712329179357</v>
       </c>
@@ -1546,35 +1712,35 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="11" t="n">
         <f aca="false">SUM(B30,B45)</f>
         <v>641908478</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="11" t="n">
         <f aca="false">SUM(C30,C45)</f>
         <v>645278507</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="12" t="n">
         <f aca="false">(B47-C47)/C47</f>
         <v>-0.00522259607819233</v>
       </c>
-      <c r="E47" s="11" t="n">
+      <c r="E47" s="13" t="n">
         <f aca="false">(B47/$B$47)*100</f>
         <v>100</v>
       </c>
-      <c r="F47" s="11" t="n">
+      <c r="F47" s="13" t="n">
         <f aca="false">(C47/$C$47)*100</f>
         <v>100</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1599,17 +1765,17 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1647,13 +1813,13 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
@@ -1680,7 +1846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>51</v>
       </c>
@@ -1694,20 +1860,20 @@
         <f aca="false">(B7-C7)/C7</f>
         <v>-0.0666323540704429</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">(B7/$B$9)*100</f>
         <v>97.4593426679398</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <f aca="false">(C7/$C$9)*100</f>
         <v>96.3855068831988</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="9" t="n">
         <f aca="false">E7-F7</f>
         <v>1.07383578474099</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>52</v>
       </c>
@@ -1717,19 +1883,19 @@
       <c r="C8" s="5" t="n">
         <v>11856626</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="10" t="n">
         <f aca="false">(B8-C8)/C8</f>
         <v>-0.351156897417528</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <f aca="false">(B8/$B$9)*100</f>
         <v>2.54065733206023</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <f aca="false">(C8/$C$9)*100</f>
         <v>3.61449311680122</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="9" t="n">
         <f aca="false">E8-F8</f>
         <v>-1.07383578474099</v>
       </c>
@@ -1738,27 +1904,27 @@
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <f aca="false">SUM(B7:B8)</f>
         <v>302799197</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <f aca="false">SUM(C7:C8)</f>
         <v>328030117</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="12" t="n">
         <f aca="false">(B9-C9)/C9</f>
         <v>-0.0769164741053335</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="14" t="n">
         <f aca="false">(B9/$B$9)*100</f>
         <v>100</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="14" t="n">
         <f aca="false">(C9/$C$9)*100</f>
         <v>100</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="14" t="n">
         <f aca="false">E9-F9</f>
         <v>0</v>
       </c>
@@ -1770,17 +1936,17 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="n">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="n">
         <f aca="false">(C10/$C$9)*100</f>
         <v>0</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="9" t="n">
         <f aca="false">E10-F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>55</v>
       </c>
@@ -1794,20 +1960,20 @@
         <f aca="false">(B11-C11)/C11</f>
         <v>-0.0696787907082384</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="16" t="n">
         <f aca="false">(B11/$B$9)*100</f>
         <v>73.1801062206912</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9" t="n">
         <f aca="false">(C11/$C$9)*100</f>
         <v>72.6107819545118</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="9" t="n">
         <f aca="false">E11-F11</f>
         <v>0.569324266179379</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>56</v>
       </c>
@@ -1817,24 +1983,24 @@
       <c r="C12" s="5" t="n">
         <v>10641274</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="10" t="n">
         <f aca="false">(B12-C12)/C12</f>
         <v>-0.671353354870855</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="9" t="n">
         <f aca="false">(B12/$B$9)*100</f>
         <v>1.15496310249462</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="9" t="n">
         <f aca="false">(C12/$C$9)*100</f>
         <v>3.2439929898266</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="9" t="n">
         <f aca="false">E12-F12</f>
         <v>-2.08902988733198</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>57</v>
       </c>
@@ -1844,24 +2010,24 @@
       <c r="C13" s="5" t="n">
         <v>3842040</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="10" t="n">
         <f aca="false">(B13-C13)/C13</f>
         <v>0.843839470697859</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">(B13/$B$9)*100</f>
         <v>2.33953889910745</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9" t="n">
         <f aca="false">(C13/$C$9)*100</f>
         <v>1.17124611457551</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="9" t="n">
         <f aca="false">E13-F13</f>
         <v>1.16829278453194</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>58</v>
       </c>
@@ -1871,24 +2037,24 @@
       <c r="C14" s="5" t="n">
         <v>18214711</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="10" t="n">
         <f aca="false">(B14-C14)/C14</f>
         <v>-0.379283975463569</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9" t="n">
         <f aca="false">(B14/$B$9)*100</f>
         <v>3.73388143430248</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <f aca="false">(C14/$C$9)*100</f>
         <v>5.55275569407549</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="9" t="n">
         <f aca="false">E14-F14</f>
         <v>-1.81887425977301</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>59</v>
       </c>
@@ -1898,24 +2064,24 @@
       <c r="C15" s="5" t="n">
         <v>2199037</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="10" t="n">
         <f aca="false">(B15-C15)/C15</f>
         <v>0.793918883584042</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9" t="n">
         <f aca="false">(B15/$B$9)*100</f>
         <v>1.30280860685374</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <f aca="false">(C15/$C$9)*100</f>
         <v>0.670376555699</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="9" t="n">
         <f aca="false">E15-F15</f>
         <v>0.632432051154736</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>60</v>
       </c>
@@ -1925,19 +2091,19 @@
       <c r="C16" s="5" t="n">
         <v>2499734</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="10" t="n">
         <f aca="false">(B16-C16)/C16</f>
         <v>-0.617429694519497</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="9" t="n">
         <f aca="false">(B16/$B$9)*100</f>
         <v>0.315827786029433</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <f aca="false">(C16/$C$9)*100</f>
         <v>0.762044053412327</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="9" t="n">
         <f aca="false">E16-F16</f>
         <v>-0.446216267382895</v>
       </c>
@@ -1946,27 +2112,27 @@
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <f aca="false">SUM(B11:B16)</f>
         <v>248377479</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <f aca="false">SUM(C11:C16)</f>
         <v>275582029</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="12" t="n">
         <f aca="false">(B17-C17)/C17</f>
         <v>-0.098716705507673</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="14" t="n">
         <f aca="false">(B17/$B$9)*100</f>
         <v>82.0271260494789</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="14" t="n">
         <f aca="false">(C17/$C$9)*100</f>
         <v>84.0111973621008</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="14" t="n">
         <f aca="false">E17-F17</f>
         <v>-1.98407131262184</v>
       </c>
@@ -1975,27 +2141,27 @@
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <f aca="false">SUM(B9-B17)</f>
         <v>54421718</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <f aca="false">SUM(C9-C17)</f>
         <v>52448088</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="12" t="n">
         <f aca="false">(B18-C18)/C18</f>
         <v>0.0376301610842325</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="14" t="n">
         <f aca="false">(B18/$B$9)*100</f>
         <v>17.9728739505211</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="14" t="n">
         <f aca="false">(C18/$C$9)*100</f>
         <v>15.9888026378993</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="14" t="n">
         <f aca="false">E18-F18</f>
         <v>1.98407131262183</v>
       </c>
@@ -2007,18 +2173,18 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="n">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="n">
         <f aca="false">(C19/$C$9)*100</f>
         <v>0</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="9" t="n">
         <f aca="false">E19-F19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="5" t="n">
@@ -2027,25 +2193,25 @@
       <c r="C20" s="5" t="n">
         <v>25278336</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="10" t="n">
         <f aca="false">(B20-C20)/C20</f>
         <v>-0.221423000311413</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">(B20/$B$9)*100</f>
         <v>6.49973024862414</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="9" t="n">
         <f aca="false">(C20/$C$9)*100</f>
         <v>7.70610218085555</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="9" t="n">
         <f aca="false">E20-F20</f>
         <v>-1.20637193223141</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="5" t="n">
@@ -2054,25 +2220,25 @@
       <c r="C21" s="5" t="n">
         <v>14025871</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="10" t="n">
         <f aca="false">(B21-C21)/C21</f>
         <v>0.903857450278845</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">(B21/$B$9)*100</f>
         <v>8.81880112779824</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="9" t="n">
         <f aca="false">(C21/$C$9)*100</f>
         <v>4.27578757958983</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="9" t="n">
         <f aca="false">E21-F21</f>
         <v>4.5430135482084</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="5" t="n">
@@ -2081,25 +2247,25 @@
       <c r="C22" s="5" t="n">
         <v>665146</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="10" t="n">
         <f aca="false">(B22-C22)/C22</f>
         <v>-0.276808399960309</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="9" t="n">
         <f aca="false">(B22/$B$9)*100</f>
         <v>0.158860394864257</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="9" t="n">
         <f aca="false">(C22/$C$9)*100</f>
         <v>0.202769796286723</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="9" t="n">
         <f aca="false">E22-F22</f>
         <v>-0.0439094014224661</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="5" t="n">
@@ -2112,21 +2278,21 @@
         <f aca="false">(B23-C23)/C23</f>
         <v>0.449537368612218</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="16" t="n">
         <f aca="false">(B23/$B$9)*100</f>
         <v>8.28620229134888</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="9" t="n">
         <f aca="false">(C23/$C$9)*100</f>
         <v>5.27675725579795</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="9" t="n">
         <f aca="false">E23-F23</f>
         <v>3.00944503555093</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="5" t="n">
@@ -2135,19 +2301,19 @@
       <c r="C24" s="5" t="n">
         <v>-10728899</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="10" t="n">
         <f aca="false">(B24-C24)/C24</f>
         <v>-0.362607570450612</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="9" t="n">
         <f aca="false">(B24/$B$9)*100</f>
         <v>-2.25843366420816</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="9" t="n">
         <f aca="false">(C24/$C$9)*100</f>
         <v>-3.27070547610724</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="9" t="n">
         <f aca="false">E24-F24</f>
         <v>1.01227181189908</v>
       </c>
@@ -2156,27 +2322,27 @@
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <f aca="false">SUM(B20:B24)</f>
         <v>65117453</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <f aca="false">SUM(C20:C24)</f>
         <v>46549807</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="12" t="n">
         <f aca="false">(B25-C25)/C25</f>
         <v>0.398876970639212</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="14" t="n">
         <f aca="false">(B25/$B$9)*100</f>
         <v>21.5051603984273</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="14" t="n">
         <f aca="false">(C25/$C$9)*100</f>
         <v>14.1907113364228</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="14" t="n">
         <f aca="false">E25-F25</f>
         <v>7.31444906200454</v>
       </c>
@@ -2185,27 +2351,27 @@
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <f aca="false">B18-B25</f>
         <v>-10695735</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <f aca="false">C18-C25</f>
         <v>5898281</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="12" t="n">
         <f aca="false">(B26-C26)/C26</f>
         <v>-2.81336477526249</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="14" t="n">
         <f aca="false">(B26/$B$9)*100</f>
         <v>-3.53228644790627</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="14" t="n">
         <f aca="false">(C26/$C$9)*100</f>
         <v>1.79809130147644</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="14" t="n">
         <f aca="false">E26-F26</f>
         <v>-5.33037774938271</v>
       </c>
@@ -2214,21 +2380,21 @@
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="n">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="n">
         <f aca="false">(C27/$C$9)*100</f>
         <v>0</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="9" t="n">
         <f aca="false">E27-F27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="5" t="n">
@@ -2237,25 +2403,25 @@
       <c r="C28" s="5" t="n">
         <v>-4356633</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="10" t="n">
         <f aca="false">(B28-C28)/C28</f>
         <v>-1.16234417725799</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="9" t="n">
         <f aca="false">(B28/$B$9)*100</f>
         <v>0.233578558664408</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="9" t="n">
         <f aca="false">(C28/$C$9)*100</f>
         <v>-1.32811982016883</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="9" t="n">
         <f aca="false">E28-F28</f>
         <v>1.56169837883324</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="5" t="n">
@@ -2264,19 +2430,19 @@
       <c r="C29" s="5" t="n">
         <v>-10339082</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="10" t="n">
         <f aca="false">(B29-C29)/C29</f>
         <v>0.908626607275191</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="16" t="n">
         <f aca="false">(B29/$B$9)*100</f>
         <v>-6.51700770527473</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="9" t="n">
         <f aca="false">(C29/$C$9)*100</f>
         <v>-3.15186974127745</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="9" t="n">
         <f aca="false">E29-F29</f>
         <v>-3.36513796399728</v>
       </c>
@@ -2285,33 +2451,33 @@
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <f aca="false">SUM(B28:B29)</f>
         <v>-19026173</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <f aca="false">SUM(C28:C29)</f>
         <v>-14695715</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="12" t="n">
         <f aca="false">(B30-C30)/C30</f>
         <v>0.294674876315987</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="14" t="n">
         <f aca="false">(B30/$B$9)*100</f>
         <v>-6.28342914661032</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="14" t="n">
         <f aca="false">(C30/$C$9)*100</f>
         <v>-4.47998956144627</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="14" t="n">
         <f aca="false">E30-F30</f>
         <v>-1.80343958516405</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="5" t="n">
@@ -2322,25 +2488,25 @@
         <f aca="false">SUM(C26,C30)</f>
         <v>-8797434</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="10" t="n">
         <f aca="false">(B31-C31)/C31</f>
         <v>2.37847467795723</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="16" t="n">
         <f aca="false">(B31/$B$9)*100</f>
         <v>-9.81571559451659</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="9" t="n">
         <f aca="false">(C31/$C$9)*100</f>
         <v>-2.68189825996983</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="9" t="n">
         <f aca="false">E31-F31</f>
         <v>-7.13381733454676</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="5" t="n">
@@ -2349,19 +2515,19 @@
       <c r="C32" s="5" t="n">
         <v>-49826</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="10" t="n">
         <f aca="false">(B32-C32)/C32</f>
         <v>-1.66838598322161</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32" s="9" t="n">
         <f aca="false">(B32/$B$9)*100</f>
         <v>0.0109983779118146</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="9" t="n">
         <f aca="false">(C32/$C$9)*100</f>
         <v>-0.0151894589605625</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="9" t="n">
         <f aca="false">E32-F32</f>
         <v>0.0261878368723771</v>
       </c>
@@ -2370,27 +2536,27 @@
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="11" t="n">
         <f aca="false">SUM(B31:B32)</f>
         <v>-29688605</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="11" t="n">
         <f aca="false">SUM(C31:C32)</f>
         <v>-8847260</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="12" t="n">
         <f aca="false">(B33-C33)/C33</f>
         <v>2.35568356756781</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="14" t="n">
         <f aca="false">(B33/$B$9)*100</f>
         <v>-9.80471721660477</v>
       </c>
-      <c r="F33" s="12" t="n">
+      <c r="F33" s="14" t="n">
         <f aca="false">(C33/$C$9)*100</f>
         <v>-2.69708771893039</v>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="G33" s="14" t="n">
         <f aca="false">E33-F33</f>
         <v>-7.10762949767438</v>
       </c>
@@ -2399,7 +2565,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
@@ -2408,19 +2574,19 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="5"/>
@@ -2428,19 +2594,19 @@
         <v>22664605</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="5" t="n">
@@ -2450,50 +2616,50 @@
         <v>-200171</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="11" t="n">
         <f aca="false">SUM(B37:B39)</f>
         <v>2205682</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="11" t="n">
         <f aca="false">SUM(C37:C39)</f>
         <v>22464434</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="11" t="n">
         <f aca="false">SUM(B33,B40)</f>
         <v>-27482923</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="11" t="n">
         <f aca="false">SUM(C33,C40)</f>
         <v>13617174</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="11" t="n">
         <v>-468.88</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="11" t="n">
         <v>-139.73</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2516,158 +2682,432 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C17"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="4" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C2" s="4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="18" t="n">
         <f aca="false">('Estado de Situacion'!B20/'Estado de Situacion'!B44)</f>
         <v>0.519079048174375</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="15" t="n">
+      <c r="I3" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="18" t="n">
         <f aca="false">('Estado de Situacion'!B20-'Estado de Situacion'!B18)/'Estado de Situacion'!B44</f>
         <v>0.446774861083399</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="15" t="n">
+      <c r="I4" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="19" t="n">
         <f aca="false">'Estado de Resultados'!B17/'Estado de Situacion'!B18</f>
         <v>39.1400015411591</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="15" t="n">
-        <f aca="false">360/C5</f>
+      <c r="I5" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="19" t="n">
+        <f aca="false">360/B5</f>
         <v>9.19775129853862</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="15" t="n">
+      <c r="I6" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="18" t="n">
         <f aca="false">'Estado de Situacion'!B17/('Estado de Resultados'!B9/360)</f>
         <v>31.7443515545386</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="15" t="n">
+      <c r="I7" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="18" t="n">
         <f aca="false">'Estado de Situacion'!B42/('Estado de Resultados'!B17/360)</f>
         <v>75.2335238896599</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="15" t="n">
+      <c r="I8" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="18" t="n">
         <f aca="false">'Estado de Resultados'!B9/'Estado de Situacion'!B12</f>
         <v>0.507753471406334</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="15" t="n">
+      <c r="C9" s="20" t="n">
+        <f aca="false">'Estado de Resultados'!B7/'Estado de Situacion'!B12</f>
+        <v>0.494853195606259</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="I9" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="18" t="n">
         <f aca="false">'Estado de Resultados'!B9/'Estado de Situacion'!B21</f>
         <v>0.471717086434867</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="15" t="n">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="18" t="n">
         <f aca="false">'Estado de Situacion'!B45/'Estado de Situacion'!B21</f>
         <v>0.479535828782121</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="15" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="18" t="n">
         <f aca="false">'Estado de Resultados'!B26/'Estado de Resultados'!B29</f>
         <v>0.542010475919387</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="15" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="18" t="n">
         <f aca="false">('Estado de Resultados'!B9-'Estado de Resultados'!B17)/'Estado de Resultados'!B9</f>
         <v>0.179728739505211</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="15" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="18" t="n">
         <f aca="false">'Estado de Resultados'!B33/'Estado de Resultados'!B9</f>
         <v>-0.0980471721660477</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="15" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="20" t="n">
         <f aca="false">'Estado de Resultados'!B33/'Estado de Situacion'!B21</f>
         <v>-0.0462505263873458</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="15" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="18" t="n">
         <f aca="false">'Estado de Resultados'!B33/'Estado de Situacion'!B30</f>
         <v>-0.0888639966880338</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="16" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="21" t="n">
         <f aca="false">'Estado de Situacion'!B20-'Estado de Situacion'!B44</f>
         <v>-42208666</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2688,18 +3128,18 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.4817813765182"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="17" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="23" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2736,6 +3176,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3</v>
@@ -2747,16 +3191,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,8 +3227,8 @@
         <v>5773898</v>
       </c>
       <c r="F7" s="0"/>
-      <c r="G7" s="17" t="s">
-        <v>106</v>
+      <c r="G7" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,8 +3246,8 @@
         <v>1502049</v>
       </c>
       <c r="F8" s="0"/>
-      <c r="G8" s="17" t="s">
-        <v>106</v>
+      <c r="G8" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,8 +3278,8 @@
         <v>20900</v>
       </c>
       <c r="F10" s="0"/>
-      <c r="G10" s="17" t="s">
-        <v>106</v>
+      <c r="G10" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,19 +3297,19 @@
         <v>1262897</v>
       </c>
       <c r="F11" s="0"/>
-      <c r="G11" s="17" t="s">
-        <v>106</v>
+      <c r="G11" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <f aca="false">SUM(B7:B11)</f>
         <v>604910560</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <f aca="false">SUM(C7:C11)</f>
         <v>596350816</v>
       </c>
@@ -2882,8 +3326,8 @@
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
     </row>
@@ -2901,8 +3345,8 @@
         <f aca="false">C15-B15</f>
         <v>2847636</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>106</v>
+      <c r="F15" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G15" s="0"/>
     </row>
@@ -2920,8 +3364,8 @@
         <f aca="false">C16-B16</f>
         <v>21665</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>106</v>
+      <c r="F16" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G16" s="0"/>
     </row>
@@ -2939,8 +3383,8 @@
         <f aca="false">C17-B17</f>
         <v>555566</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>106</v>
+      <c r="F17" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G17" s="0"/>
     </row>
@@ -2958,14 +3402,14 @@
         <f aca="false">C18-B18</f>
         <v>1927590</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>106</v>
+      <c r="F18" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>1389298</v>
@@ -2978,8 +3422,8 @@
         <v>162742</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="17" t="s">
-        <v>106</v>
+      <c r="F19" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G19" s="0"/>
     </row>
@@ -2987,11 +3431,11 @@
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <f aca="false">SUM(B15:B19)</f>
         <v>40367947</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <f aca="false">SUM(C15:C19)</f>
         <v>45557662</v>
       </c>
@@ -3003,11 +3447,11 @@
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <f aca="false">SUM(B12,B20)</f>
         <v>645278507</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <f aca="false">SUM(C12,C20)</f>
         <v>641908478</v>
       </c>
@@ -3029,8 +3473,8 @@
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="E23" s="5"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -3092,8 +3536,8 @@
         <v>20000177</v>
       </c>
       <c r="F27" s="0"/>
-      <c r="G27" s="17" t="s">
-        <v>106</v>
+      <c r="G27" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,8 +3555,8 @@
         <v>9687534</v>
       </c>
       <c r="F28" s="0"/>
-      <c r="G28" s="17" t="s">
-        <v>106</v>
+      <c r="G28" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,19 +3575,19 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="0"/>
-      <c r="G29" s="17" t="s">
-        <v>106</v>
+      <c r="G29" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <f aca="false">SUM(B24:B29)</f>
         <v>361572393</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <f aca="false">SUM(C24:C29)</f>
         <v>334090364</v>
       </c>
@@ -3153,8 +3597,8 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -3164,7 +3608,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="11"/>
       <c r="E32" s="5"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -3184,8 +3628,8 @@
         <v>29441326</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="17" t="s">
-        <v>106</v>
+      <c r="F33" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G33" s="0"/>
     </row>
@@ -3204,14 +3648,14 @@
         <v>852371</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="17" t="s">
-        <v>106</v>
+      <c r="F34" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>6926725</v>
@@ -3223,8 +3667,8 @@
         <f aca="false">B35-C35</f>
         <v>3888142</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>106</v>
+      <c r="F35" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G35" s="0"/>
     </row>
@@ -3242,8 +3686,8 @@
         <f aca="false">B36-C36</f>
         <v>71853</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>106</v>
+      <c r="F36" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G36" s="0"/>
     </row>
@@ -3261,8 +3705,8 @@
         <f aca="false">B37-C37</f>
         <v>33303</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>106</v>
+      <c r="F37" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G37" s="0"/>
     </row>
@@ -3270,11 +3714,11 @@
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="11" t="n">
         <f aca="false">SUM(B33:B37)</f>
         <v>193751387</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="11" t="n">
         <f aca="false">SUM(C33:C37)</f>
         <v>220051786</v>
       </c>
@@ -3291,7 +3735,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="11"/>
       <c r="E40" s="5"/>
       <c r="G40" s="0"/>
     </row>
@@ -3309,8 +3753,8 @@
         <f aca="false">B41-C41</f>
         <v>8247046</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>106</v>
+      <c r="G41" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,8 +3772,8 @@
         <v>11036816</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="G42" s="17" t="s">
-        <v>106</v>
+      <c r="G42" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,19 +3790,19 @@
         <f aca="false">B43-C43</f>
         <v>4978169</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>106</v>
+      <c r="G43" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="11" t="n">
         <f aca="false">SUM(B41:B43)</f>
         <v>89954727</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="11" t="n">
         <f aca="false">SUM(C41:C43)</f>
         <v>87766328</v>
       </c>
@@ -3368,11 +3812,11 @@
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="11" t="n">
         <f aca="false">SUM(B38,B44)</f>
         <v>283706114</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="11" t="n">
         <f aca="false">SUM(C38,C44)</f>
         <v>307818114</v>
       </c>
@@ -3390,24 +3834,29 @@
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="11" t="n">
         <f aca="false">SUM(B30,B45)</f>
         <v>645278507</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="11" t="n">
         <f aca="false">SUM(C30,C45)</f>
         <v>641908478</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="11" t="n">
         <f aca="false">SUM(D7:D45)</f>
         <v>52258681</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="11" t="n">
         <f aca="false">SUM(E7:E45)</f>
         <v>52258681</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
